--- a/output/piastow/2020/sheets/year_2020.xlsx
+++ b/output/piastow/2020/sheets/year_2020.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>51.28387096774193</v>
+        <v>51.53413651318779</v>
       </c>
       <c r="C2" t="n">
-        <v>43.68387096774194</v>
+        <v>43.89917148557511</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>49.43448275862069</v>
+        <v>50.90622838241551</v>
       </c>
       <c r="C3" t="n">
-        <v>39.72068965517241</v>
+        <v>43.50252913364724</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.05483870967742</v>
+        <v>50.16088240170893</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>43.57610807417038</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.23333333333333</v>
+        <v>33.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.066666666666667</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.01935483870968</v>
+        <v>36.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2.493548387096774</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.61333333333334</v>
+        <v>36.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.986666666666667</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47.19354838709679</v>
+        <v>47.50647275864424</v>
       </c>
       <c r="C8" t="n">
-        <v>36.40645161290323</v>
+        <v>39.91821508601434</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48.13548387096775</v>
+        <v>48.18687333919345</v>
       </c>
       <c r="C9" t="n">
-        <v>40.22903225806452</v>
+        <v>41.2839747056335</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>48.38333333333333</v>
+        <v>48.43701247533942</v>
       </c>
       <c r="C10" t="n">
-        <v>40.78333333333333</v>
+        <v>41.30182450844536</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.94193548387098</v>
+        <v>48.17615152086329</v>
       </c>
       <c r="C11" t="n">
-        <v>40.0516129032258</v>
+        <v>41.85113073700833</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.39999999999999</v>
+        <v>45.81613570683309</v>
       </c>
       <c r="C12" t="n">
-        <v>37.28333333333333</v>
+        <v>41.1359911731008</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.89677419354839</v>
+        <v>47.12713920985881</v>
       </c>
       <c r="C13" t="n">
-        <v>38.44516129032257</v>
+        <v>40.85963150688733</v>
       </c>
     </row>
   </sheetData>
